--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2002,44 +2002,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.96875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="23.97265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,216 +286,220 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3331,13 +3335,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3388,7 +3392,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3406,7 +3410,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -3420,7 +3424,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3449,7 +3453,7 @@
         <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>137</v>
@@ -3490,19 +3494,19 @@
         <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3520,7 +3524,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3534,7 +3538,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3560,16 +3564,16 @@
         <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3594,13 +3598,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3618,7 +3622,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3636,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3650,7 +3654,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3673,19 +3677,19 @@
         <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3710,13 +3714,13 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -3734,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3752,7 +3756,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3766,7 +3770,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3792,16 +3796,16 @@
         <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3811,10 +3815,10 @@
         <v>76</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3854,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3868,7 +3872,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3882,7 +3886,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3905,16 +3909,16 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3928,7 +3932,7 @@
         <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>76</v>
@@ -3964,7 +3968,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3982,7 +3986,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3996,7 +4000,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4019,13 +4023,13 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4076,7 +4080,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4094,7 +4098,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -4108,7 +4112,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4131,16 +4135,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4190,7 +4194,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4208,7 +4212,7 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -4222,7 +4226,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4248,16 +4252,16 @@
         <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4282,13 +4286,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -4306,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>88</v>
@@ -4321,24 +4325,24 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4361,19 +4365,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4383,7 +4387,7 @@
         <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -4401,10 +4405,10 @@
         <v>112</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4422,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>88</v>
@@ -4437,24 +4441,24 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4477,19 +4481,19 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4499,7 +4503,7 @@
         <v>76</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>76</v>
@@ -4514,13 +4518,13 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -4538,7 +4542,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4553,24 +4557,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4593,19 +4597,19 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4654,7 +4658,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4672,21 +4676,21 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4709,17 +4713,17 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4768,7 +4772,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4783,24 +4787,24 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4823,19 +4827,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>88</v>
@@ -4899,24 +4903,24 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4939,17 +4943,17 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4998,7 +5002,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>88</v>
@@ -5013,24 +5017,24 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5053,16 +5057,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5112,7 +5116,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>88</v>
@@ -5130,13 +5134,13 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5144,7 +5148,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5170,13 +5174,13 @@
         <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5202,13 +5206,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -5226,7 +5230,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5244,13 +5248,13 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5258,7 +5262,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5281,19 +5285,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5342,7 +5346,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5360,13 +5364,13 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5374,7 +5378,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5397,13 +5401,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5454,7 +5458,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5472,7 +5476,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5515,7 +5519,7 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>137</v>
@@ -5568,7 +5572,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5586,7 +5590,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5600,11 +5604,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5626,10 +5630,10 @@
         <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>137</v>
@@ -5684,7 +5688,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5716,7 +5720,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5742,14 +5746,14 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5774,13 +5778,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5798,7 +5802,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -5816,10 +5820,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5830,7 +5834,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5853,17 +5857,17 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5912,7 +5916,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5934,10 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5944,7 +5948,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5967,17 +5971,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6026,7 +6030,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6044,21 +6048,21 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6081,19 +6085,19 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6142,7 +6146,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6160,13 +6164,13 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6174,7 +6178,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6197,16 +6201,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6256,7 +6260,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6274,13 +6278,13 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6288,7 +6292,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6311,13 +6315,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6368,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6386,7 +6390,7 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6400,7 +6404,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6429,7 +6433,7 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>137</v>
@@ -6482,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6500,7 +6504,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6514,11 +6518,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6540,10 +6544,10 @@
         <v>134</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>137</v>
@@ -6598,7 +6602,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6630,7 +6634,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6656,13 +6660,13 @@
         <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6688,13 +6692,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -6712,7 +6716,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>88</v>
@@ -6730,13 +6734,13 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6744,7 +6748,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6767,13 +6771,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6824,7 +6828,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6842,13 +6846,13 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6856,7 +6860,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6879,19 +6883,19 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6940,7 +6944,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6958,13 +6962,13 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6972,7 +6976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6995,13 +6999,13 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7052,7 +7056,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7070,7 +7074,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7084,7 +7088,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7113,7 +7117,7 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>137</v>
@@ -7166,7 +7170,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7184,7 +7188,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7198,11 +7202,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7224,10 +7228,10 @@
         <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>137</v>
@@ -7282,7 +7286,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7314,7 +7318,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7337,16 +7341,16 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7372,13 +7376,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7396,7 +7400,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7414,13 +7418,13 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7428,7 +7432,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7451,13 +7455,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7508,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7526,13 +7530,13 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7540,7 +7544,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7563,13 +7567,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7620,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7642,10 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7652,7 +7656,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7675,13 +7679,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7720,19 +7724,19 @@
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7744,16 +7748,16 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7764,7 +7768,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7787,13 +7791,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7844,7 +7848,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7862,7 +7866,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7876,7 +7880,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>137</v>
@@ -7958,7 +7962,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7976,7 +7980,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7990,11 +7994,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8016,10 +8020,10 @@
         <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>137</v>
@@ -8074,7 +8078,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8106,11 +8110,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8129,19 +8133,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8190,7 +8194,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8208,10 +8212,10 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8222,7 +8226,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8245,19 +8249,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8282,13 +8286,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8306,7 +8310,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8324,10 +8328,10 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8338,7 +8342,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8361,17 +8365,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8420,7 +8424,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8438,21 +8442,21 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8475,16 +8479,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8534,7 +8538,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8555,7 +8559,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8566,7 +8570,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8592,13 +8596,13 @@
         <v>118</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8648,7 +8652,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8657,7 +8661,7 @@
         <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>100</v>
@@ -8666,10 +8670,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8680,7 +8684,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8706,16 +8710,16 @@
         <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8740,13 +8744,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8764,7 +8768,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8782,21 +8786,21 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8819,19 +8823,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8859,10 +8863,10 @@
         <v>112</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8880,7 +8884,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8898,10 +8902,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8912,7 +8916,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8935,16 +8939,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8994,7 +8998,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9003,7 +9007,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>100</v>
@@ -9012,10 +9016,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -9026,7 +9030,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9049,19 +9053,19 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -9089,10 +9093,10 @@
         <v>112</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -9110,7 +9114,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9119,7 +9123,7 @@
         <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>100</v>
@@ -9128,10 +9132,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9142,7 +9146,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9168,13 +9172,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9224,7 +9228,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9233,7 +9237,7 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>100</v>
@@ -9242,10 +9246,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9256,10 +9260,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>76</v>
@@ -9281,13 +9285,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9338,7 +9342,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9350,16 +9354,16 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9370,7 +9374,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9393,13 +9397,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9450,7 +9454,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9468,7 +9472,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9482,7 +9486,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9511,7 +9515,7 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>137</v>
@@ -9564,7 +9568,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9582,7 +9586,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9596,11 +9600,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9622,10 +9626,10 @@
         <v>134</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>137</v>
@@ -9680,7 +9684,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9712,11 +9716,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9735,19 +9739,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -9757,7 +9761,7 @@
         <v>76</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9796,7 +9800,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9814,10 +9818,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9828,7 +9832,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9851,19 +9855,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9873,7 +9877,7 @@
         <v>76</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>76</v>
@@ -9888,13 +9892,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9912,7 +9916,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9930,10 +9934,10 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9944,7 +9948,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9967,17 +9971,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10026,7 +10030,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10044,21 +10048,21 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10081,16 +10085,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10140,7 +10144,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10161,7 +10165,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10172,7 +10176,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10198,13 +10202,13 @@
         <v>118</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10254,7 +10258,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10263,7 +10267,7 @@
         <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>100</v>
@@ -10272,10 +10276,10 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10286,7 +10290,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10312,16 +10316,16 @@
         <v>108</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10346,13 +10350,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10370,7 +10374,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10388,21 +10392,21 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10425,19 +10429,19 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10465,10 +10469,10 @@
         <v>112</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10486,7 +10490,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10504,10 +10508,10 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10518,7 +10522,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10541,16 +10545,16 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10588,17 +10592,17 @@
         <v>76</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10607,7 +10611,7 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
@@ -10616,10 +10620,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10630,10 +10634,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>76</v>
@@ -10655,16 +10659,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10714,7 +10718,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10723,7 +10727,7 @@
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>100</v>
@@ -10732,10 +10736,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10746,10 +10750,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>76</v>
@@ -10771,16 +10775,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10830,7 +10834,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10839,7 +10843,7 @@
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>100</v>
@@ -10848,10 +10852,10 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10862,7 +10866,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10885,19 +10889,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10925,10 +10929,10 @@
         <v>112</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -10946,7 +10950,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10955,7 +10959,7 @@
         <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>100</v>
@@ -10964,10 +10968,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10978,7 +10982,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11004,13 +11008,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11060,7 +11064,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11069,7 +11073,7 @@
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>100</v>
@@ -11078,10 +11082,10 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11092,10 +11096,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>76</v>
@@ -11117,13 +11121,13 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11174,7 +11178,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11186,16 +11190,16 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11206,7 +11210,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11229,13 +11233,13 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11286,7 +11290,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11304,7 +11308,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -11318,7 +11322,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11347,7 +11351,7 @@
         <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>137</v>
@@ -11400,7 +11404,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11418,7 +11422,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11432,11 +11436,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11458,10 +11462,10 @@
         <v>134</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>137</v>
@@ -11516,7 +11520,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11548,11 +11552,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11571,19 +11575,19 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -11593,7 +11597,7 @@
         <v>76</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>76</v>
@@ -11632,7 +11636,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11650,10 +11654,10 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11664,7 +11668,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11687,19 +11691,19 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11709,7 +11713,7 @@
         <v>76</v>
       </c>
       <c r="R85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>76</v>
@@ -11724,13 +11728,13 @@
         <v>76</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>76</v>
@@ -11748,7 +11752,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11766,10 +11770,10 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11780,7 +11784,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11803,17 +11807,17 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11862,7 +11866,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11880,21 +11884,21 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11917,16 +11921,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11976,7 +11980,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11997,7 +12001,7 @@
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12008,7 +12012,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12034,13 +12038,13 @@
         <v>118</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12090,7 +12094,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12099,7 +12103,7 @@
         <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>100</v>
@@ -12108,10 +12112,10 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -12122,7 +12126,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12148,16 +12152,16 @@
         <v>108</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12182,13 +12186,13 @@
         <v>76</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>76</v>
@@ -12206,7 +12210,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12224,21 +12228,21 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12261,19 +12265,19 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -12301,10 +12305,10 @@
         <v>112</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -12322,7 +12326,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12340,10 +12344,10 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12354,7 +12358,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12362,7 +12366,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>78</v>
@@ -12377,16 +12381,16 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12424,17 +12428,17 @@
         <v>76</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12443,7 +12447,7 @@
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>100</v>
@@ -12452,10 +12456,10 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12466,10 +12470,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>76</v>
@@ -12491,16 +12495,16 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12550,7 +12554,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12559,7 +12563,7 @@
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -12568,10 +12572,10 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12582,10 +12586,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>76</v>
@@ -12607,16 +12611,16 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12666,7 +12670,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12675,7 +12679,7 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12684,10 +12688,10 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12698,10 +12702,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
@@ -12723,16 +12727,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12782,7 +12786,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -12791,7 +12795,7 @@
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -12800,10 +12804,10 @@
         <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12814,10 +12818,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
@@ -12839,16 +12843,16 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12898,7 +12902,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -12907,7 +12911,7 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -12916,10 +12920,10 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12930,7 +12934,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12953,19 +12957,19 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -12993,10 +12997,10 @@
         <v>112</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13014,7 +13018,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13023,7 +13027,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13032,10 +13036,10 @@
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13046,7 +13050,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13072,13 +13076,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13128,7 +13132,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13137,7 +13141,7 @@
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13146,10 +13150,10 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13160,10 +13164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13185,13 +13189,13 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13242,7 +13246,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13254,16 +13258,16 @@
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13274,7 +13278,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13297,13 +13301,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13354,7 +13358,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13372,7 +13376,7 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>76</v>
@@ -13386,7 +13390,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13415,7 +13419,7 @@
         <v>135</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>137</v>
@@ -13468,7 +13472,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13486,7 +13490,7 @@
         <v>76</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>76</v>
@@ -13500,11 +13504,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13526,10 +13530,10 @@
         <v>134</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>137</v>
@@ -13584,7 +13588,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13616,11 +13620,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13639,19 +13643,19 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -13661,7 +13665,7 @@
         <v>76</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>76</v>
@@ -13700,7 +13704,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13718,10 +13722,10 @@
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13732,7 +13736,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13755,19 +13759,19 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -13777,7 +13781,7 @@
         <v>76</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>76</v>
@@ -13792,13 +13796,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -13816,7 +13820,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -13834,10 +13838,10 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13848,7 +13852,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13871,17 +13875,17 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -13930,7 +13934,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -13948,21 +13952,21 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13985,16 +13989,16 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14044,7 +14048,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14065,7 +14069,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14076,7 +14080,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14102,13 +14106,13 @@
         <v>118</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14158,7 +14162,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14167,7 +14171,7 @@
         <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14176,10 +14180,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14190,7 +14194,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14216,16 +14220,16 @@
         <v>108</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14250,13 +14254,13 @@
         <v>76</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14274,7 +14278,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14292,21 +14296,21 @@
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14329,19 +14333,19 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14369,10 +14373,10 @@
         <v>112</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>76</v>
@@ -14390,7 +14394,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14408,10 +14412,10 @@
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14422,7 +14426,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14430,7 +14434,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>78</v>
@@ -14445,16 +14449,16 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14492,17 +14496,17 @@
         <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB109" s="2"/>
       <c r="AC109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14511,7 +14515,7 @@
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>100</v>
@@ -14520,10 +14524,10 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14534,10 +14538,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>76</v>
@@ -14559,16 +14563,16 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -14618,7 +14622,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14627,7 +14631,7 @@
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>100</v>
@@ -14636,10 +14640,10 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14650,10 +14654,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>76</v>
@@ -14675,16 +14679,16 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -14734,7 +14738,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14743,7 +14747,7 @@
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>100</v>
@@ -14752,10 +14756,10 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14766,7 +14770,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14789,19 +14793,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14829,10 +14833,10 @@
         <v>112</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14850,7 +14854,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14859,7 +14863,7 @@
         <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>100</v>
@@ -14868,10 +14872,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14882,7 +14886,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14908,13 +14912,13 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14964,7 +14968,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -14973,7 +14977,7 @@
         <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
@@ -14982,10 +14986,10 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -14996,10 +15000,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>76</v>
@@ -15021,13 +15025,13 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15078,7 +15082,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15090,16 +15094,16 @@
         <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15110,7 +15114,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15133,13 +15137,13 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15190,7 +15194,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15208,7 +15212,7 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>76</v>
@@ -15222,7 +15226,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15251,7 +15255,7 @@
         <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>137</v>
@@ -15304,7 +15308,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15322,7 +15326,7 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>76</v>
@@ -15336,11 +15340,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15362,10 +15366,10 @@
         <v>134</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>137</v>
@@ -15420,7 +15424,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15452,11 +15456,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15475,19 +15479,19 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15497,7 +15501,7 @@
         <v>76</v>
       </c>
       <c r="R118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>76</v>
@@ -15536,7 +15540,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15554,10 +15558,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15568,7 +15572,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15591,19 +15595,19 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15613,7 +15617,7 @@
         <v>76</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>76</v>
@@ -15628,13 +15632,13 @@
         <v>76</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>76</v>
@@ -15652,7 +15656,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -15670,10 +15674,10 @@
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15684,7 +15688,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15707,17 +15711,17 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15766,7 +15770,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15784,21 +15788,21 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15821,16 +15825,16 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15880,7 +15884,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -15901,7 +15905,7 @@
         <v>76</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15912,7 +15916,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15938,13 +15942,13 @@
         <v>118</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15994,7 +15998,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16003,7 +16007,7 @@
         <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
@@ -16012,10 +16016,10 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16026,7 +16030,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16052,16 +16056,16 @@
         <v>108</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16086,13 +16090,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16110,7 +16114,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16128,21 +16132,21 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16165,19 +16169,19 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16205,10 +16209,10 @@
         <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16226,7 +16230,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16244,10 +16248,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16258,7 +16262,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16281,16 +16285,16 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16340,7 +16344,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16349,7 +16353,7 @@
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16358,10 +16362,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16372,7 +16376,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16395,19 +16399,19 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16435,10 +16439,10 @@
         <v>112</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>76</v>
@@ -16456,7 +16460,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16465,7 +16469,7 @@
         <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>100</v>
@@ -16474,10 +16478,10 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16488,7 +16492,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16514,13 +16518,13 @@
         <v>76</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16570,7 +16574,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -16579,7 +16583,7 @@
         <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>100</v>
@@ -16588,10 +16592,10 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16602,10 +16606,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>76</v>
@@ -16627,13 +16631,13 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16684,7 +16688,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16696,16 +16700,16 @@
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16716,7 +16720,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16739,13 +16743,13 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16796,7 +16800,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16814,7 +16818,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16828,7 +16832,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16857,7 +16861,7 @@
         <v>135</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>137</v>
@@ -16910,7 +16914,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16928,7 +16932,7 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>76</v>
@@ -16942,11 +16946,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16968,10 +16972,10 @@
         <v>134</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>137</v>
@@ -17026,7 +17030,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17058,11 +17062,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17081,19 +17085,19 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17103,7 +17107,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17142,7 +17146,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17160,10 +17164,10 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17174,7 +17178,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17197,19 +17201,19 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17219,7 +17223,7 @@
         <v>76</v>
       </c>
       <c r="R133" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>76</v>
@@ -17234,13 +17238,13 @@
         <v>76</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>76</v>
@@ -17258,7 +17262,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17276,10 +17280,10 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17290,7 +17294,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17313,17 +17317,17 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
@@ -17372,7 +17376,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17390,21 +17394,21 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17427,16 +17431,16 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -17486,7 +17490,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17507,7 +17511,7 @@
         <v>76</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17518,7 +17522,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17544,13 +17548,13 @@
         <v>118</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17600,7 +17604,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17609,7 +17613,7 @@
         <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17618,10 +17622,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17632,7 +17636,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17658,16 +17662,16 @@
         <v>108</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17692,13 +17696,13 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
@@ -17716,7 +17720,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -17734,21 +17738,21 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17771,19 +17775,19 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
@@ -17811,10 +17815,10 @@
         <v>112</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17832,7 +17836,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17850,10 +17854,10 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17864,7 +17868,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17887,16 +17891,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17946,7 +17950,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -17955,7 +17959,7 @@
         <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -17964,10 +17968,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -17978,7 +17982,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18001,19 +18005,19 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18041,10 +18045,10 @@
         <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18062,7 +18066,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18071,7 +18075,7 @@
         <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18080,10 +18084,10 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18094,7 +18098,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18120,13 +18124,13 @@
         <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18176,7 +18180,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -18185,7 +18189,7 @@
         <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18194,10 +18198,10 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
@@ -18208,10 +18212,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>76</v>
@@ -18233,13 +18237,13 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18290,7 +18294,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -18302,16 +18306,16 @@
         <v>76</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
@@ -18322,7 +18326,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18345,13 +18349,13 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18402,7 +18406,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -18420,7 +18424,7 @@
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>76</v>
@@ -18434,7 +18438,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18463,7 +18467,7 @@
         <v>135</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>137</v>
@@ -18516,7 +18520,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -18534,7 +18538,7 @@
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>76</v>
@@ -18548,11 +18552,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18574,10 +18578,10 @@
         <v>134</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>137</v>
@@ -18632,7 +18636,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -18664,11 +18668,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18687,19 +18691,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -18709,7 +18713,7 @@
         <v>76</v>
       </c>
       <c r="R146" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>76</v>
@@ -18748,7 +18752,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -18766,10 +18770,10 @@
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
@@ -18780,7 +18784,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18803,19 +18807,19 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18825,7 +18829,7 @@
         <v>76</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>76</v>
@@ -18840,13 +18844,13 @@
         <v>76</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -18864,7 +18868,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
@@ -18882,10 +18886,10 @@
         <v>76</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>76</v>
@@ -18896,7 +18900,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18919,17 +18923,17 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -18978,7 +18982,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -18996,21 +19000,21 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19033,16 +19037,16 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19092,7 +19096,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -19113,7 +19117,7 @@
         <v>76</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19124,7 +19128,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19150,13 +19154,13 @@
         <v>118</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -19206,7 +19210,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -19215,7 +19219,7 @@
         <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>100</v>
@@ -19224,10 +19228,10 @@
         <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19238,7 +19242,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19264,16 +19268,16 @@
         <v>108</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19298,13 +19302,13 @@
         <v>76</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19322,7 +19326,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
@@ -19340,21 +19344,21 @@
         <v>76</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19377,19 +19381,19 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>76</v>
@@ -19417,10 +19421,10 @@
         <v>112</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>76</v>
@@ -19438,7 +19442,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -19456,10 +19460,10 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
@@ -19470,7 +19474,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19493,16 +19497,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19552,7 +19556,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -19561,7 +19565,7 @@
         <v>78</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>100</v>
@@ -19570,10 +19574,10 @@
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -19584,7 +19588,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19607,19 +19611,19 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -19647,10 +19651,10 @@
         <v>112</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19668,7 +19672,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19677,7 +19681,7 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>100</v>
@@ -19686,10 +19690,10 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -19700,7 +19704,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19726,13 +19730,13 @@
         <v>76</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -19782,7 +19786,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -19791,7 +19795,7 @@
         <v>78</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>100</v>
@@ -19800,10 +19804,10 @@
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>76</v>
@@ -19814,10 +19818,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>76</v>
@@ -19839,13 +19843,13 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19896,7 +19900,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -19908,16 +19912,16 @@
         <v>76</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -19928,7 +19932,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19951,13 +19955,13 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20008,7 +20012,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
@@ -20026,7 +20030,7 @@
         <v>76</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>76</v>
@@ -20040,7 +20044,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20069,7 +20073,7 @@
         <v>135</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M158" t="s" s="2">
         <v>137</v>
@@ -20122,7 +20126,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -20140,7 +20144,7 @@
         <v>76</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>76</v>
@@ -20154,11 +20158,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20180,10 +20184,10 @@
         <v>134</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>137</v>
@@ -20238,7 +20242,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
@@ -20270,11 +20274,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20293,19 +20297,19 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
@@ -20315,7 +20319,7 @@
         <v>76</v>
       </c>
       <c r="R160" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>76</v>
@@ -20354,7 +20358,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -20372,10 +20376,10 @@
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20386,7 +20390,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20409,19 +20413,19 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20431,7 +20435,7 @@
         <v>76</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>76</v>
@@ -20446,13 +20450,13 @@
         <v>76</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>76</v>
@@ -20470,7 +20474,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -20488,10 +20492,10 @@
         <v>76</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20502,7 +20506,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20525,17 +20529,17 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -20584,7 +20588,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -20602,21 +20606,21 @@
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20639,16 +20643,16 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -20698,7 +20702,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -20719,7 +20723,7 @@
         <v>76</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>76</v>
@@ -20730,7 +20734,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20756,13 +20760,13 @@
         <v>118</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -20812,7 +20816,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -20821,7 +20825,7 @@
         <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>100</v>
@@ -20830,10 +20834,10 @@
         <v>76</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
@@ -20844,7 +20848,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20870,16 +20874,16 @@
         <v>108</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20904,13 +20908,13 @@
         <v>76</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>76</v>
@@ -20928,7 +20932,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -20946,21 +20950,21 @@
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20983,19 +20987,19 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -21023,10 +21027,10 @@
         <v>112</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21044,7 +21048,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -21062,10 +21066,10 @@
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
@@ -21076,7 +21080,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21099,16 +21103,16 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -21158,7 +21162,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -21167,7 +21171,7 @@
         <v>78</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>100</v>
@@ -21176,10 +21180,10 @@
         <v>76</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>
@@ -21190,7 +21194,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21213,19 +21217,19 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
@@ -21253,10 +21257,10 @@
         <v>112</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>76</v>
@@ -21274,7 +21278,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -21283,7 +21287,7 @@
         <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>100</v>
@@ -21292,10 +21296,10 @@
         <v>76</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>76</v>
@@ -21306,7 +21310,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21332,13 +21336,13 @@
         <v>76</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21388,7 +21392,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -21397,7 +21401,7 @@
         <v>78</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>100</v>
@@ -21406,10 +21410,10 @@
         <v>76</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1282,7 +1282,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code.coding.code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-episode-of-care|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-clinical-encounter)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-episode-of-care|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-clinical-encounter|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-transfer-out)
 </t>
   </si>
   <si>
@@ -1620,6 +1620,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-clinical-encounter)
+</t>
+  </si>
+  <si>
+    <t>hivTransferOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-transfer-out)
 </t>
   </si>
   <si>
@@ -1637,7 +1644,21 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-arv-treatment|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-med-req)
+</t>
+  </si>
+  <si>
+    <t>arvTreatment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-arv-treatment)
+</t>
+  </si>
+  <si>
+    <t>hivCareMedicationRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-med-req)
 </t>
   </si>
   <si>
@@ -1673,7 +1694,21 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/vl-procedure-info)
+</t>
+  </si>
+  <si>
+    <t>viralLoadSuppression</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression)
+</t>
+  </si>
+  <si>
+    <t>vlProcedureInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/vl-procedure-info)
 </t>
   </si>
   <si>
@@ -1997,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN169"/>
+  <dimension ref="A1:AN174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2007,7 +2042,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2032,7 +2067,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -9840,7 +9875,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>88</v>
@@ -11676,7 +11711,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>88</v>
@@ -13744,7 +13779,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>88</v>
@@ -14770,9 +14805,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>76</v>
       </c>
@@ -14793,20 +14830,18 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>178</v>
+        <v>513</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>76</v>
       </c>
@@ -14830,13 +14865,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14854,13 +14889,13 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>465</v>
@@ -14872,10 +14907,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14886,7 +14921,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14897,7 +14932,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14909,18 +14944,20 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14944,13 +14981,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -14968,16 +15005,16 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
@@ -14986,10 +15023,10 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15000,11 +15037,9 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15013,7 +15048,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15025,15 +15060,17 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>76</v>
@@ -15082,7 +15119,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15091,10 +15128,10 @@
         <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>76</v>
@@ -15103,7 +15140,7 @@
         <v>413</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15114,9 +15151,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15137,13 +15176,13 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15194,28 +15233,28 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15226,18 +15265,18 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>76</v>
@@ -15249,17 +15288,15 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15308,19 +15345,19 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>76</v>
@@ -15340,11 +15377,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15357,26 +15394,24 @@
         <v>76</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N117" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15424,7 +15459,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15442,7 +15477,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>76</v>
@@ -15456,42 +15491,42 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15501,7 +15536,7 @@
         <v>76</v>
       </c>
       <c r="R118" t="s" s="2">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>76</v>
@@ -15540,28 +15575,28 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15572,11 +15607,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15595,19 +15630,19 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15617,7 +15652,7 @@
         <v>76</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>76</v>
@@ -15632,13 +15667,13 @@
         <v>76</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>76</v>
@@ -15656,7 +15691,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -15674,10 +15709,10 @@
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15688,7 +15723,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15696,10 +15731,10 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>76</v>
@@ -15711,17 +15746,19 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N120" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15731,7 +15768,7 @@
         <v>76</v>
       </c>
       <c r="R120" t="s" s="2">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>76</v>
@@ -15746,13 +15783,13 @@
         <v>76</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>76</v>
@@ -15770,13 +15807,13 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -15788,21 +15825,21 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15813,7 +15850,7 @@
         <v>77</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -15825,18 +15862,18 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
       </c>
@@ -15884,13 +15921,13 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15902,21 +15939,21 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15939,16 +15976,16 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15998,7 +16035,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16007,7 +16044,7 @@
         <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
@@ -16016,10 +16053,10 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16030,7 +16067,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16053,20 +16090,18 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16090,13 +16125,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16114,7 +16149,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16123,7 +16158,7 @@
         <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16132,21 +16167,21 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16169,19 +16204,19 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16206,13 +16241,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16230,7 +16265,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16248,7 +16283,7 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>160</v>
@@ -16257,12 +16292,12 @@
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16273,7 +16308,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16285,18 +16320,20 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>515</v>
+        <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16320,13 +16357,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16344,16 +16381,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16362,10 +16399,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16376,7 +16413,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16384,10 +16421,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16399,20 +16436,18 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16436,37 +16471,35 @@
         <v>76</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>465</v>
@@ -16478,10 +16511,10 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16492,18 +16525,20 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16515,16 +16550,16 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>76</v>
+        <v>519</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16574,7 +16609,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -16583,7 +16618,7 @@
         <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>100</v>
@@ -16592,10 +16627,10 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16606,17 +16641,17 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>88</v>
@@ -16631,15 +16666,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>309</v>
+        <v>521</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16688,7 +16725,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16697,19 +16734,19 @@
         <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16720,7 +16757,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16743,16 +16780,20 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>157</v>
+        <v>469</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16776,13 +16817,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -16800,7 +16841,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16809,19 +16850,19 @@
         <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16832,11 +16873,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16855,16 +16896,16 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -16914,7 +16955,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>166</v>
+        <v>476</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16923,19 +16964,19 @@
         <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16946,43 +16987,41 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B131" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="C131" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>76</v>
       </c>
@@ -17030,7 +17069,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17042,16 +17081,16 @@
         <v>76</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17062,11 +17101,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17088,17 +17127,13 @@
         <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17107,7 +17142,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>517</v>
+        <v>76</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17146,7 +17181,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>418</v>
+        <v>159</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17158,16 +17193,16 @@
         <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17178,18 +17213,18 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17201,20 +17236,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>425</v>
+        <v>135</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17223,7 +17256,7 @@
         <v>76</v>
       </c>
       <c r="R133" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>76</v>
@@ -17238,13 +17271,13 @@
         <v>76</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>76</v>
@@ -17262,28 +17295,28 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>424</v>
+        <v>166</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17294,11 +17327,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17311,23 +17344,25 @@
         <v>76</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
@@ -17376,7 +17411,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17388,31 +17423,31 @@
         <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17431,18 +17466,20 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17451,7 +17488,7 @@
         <v>76</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>76</v>
@@ -17490,7 +17527,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17508,10 +17545,10 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17522,7 +17559,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17530,7 +17567,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>88</v>
@@ -17545,18 +17582,20 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
       </c>
@@ -17565,7 +17604,7 @@
         <v>76</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>76</v>
+        <v>524</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>76</v>
@@ -17580,13 +17619,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17604,7 +17643,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17613,7 +17652,7 @@
         <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17622,10 +17661,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>444</v>
+        <v>237</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17636,7 +17675,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17647,7 +17686,7 @@
         <v>77</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17659,19 +17698,17 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17696,13 +17733,13 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
@@ -17720,13 +17757,13 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -17738,21 +17775,21 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17775,20 +17812,18 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17812,13 +17847,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17836,7 +17871,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17854,10 +17889,10 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17868,7 +17903,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17879,7 +17914,7 @@
         <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>76</v>
@@ -17891,16 +17926,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17950,16 +17985,16 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -17968,10 +18003,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -17982,7 +18017,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18005,19 +18040,19 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18042,13 +18077,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18066,7 +18101,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18075,7 +18110,7 @@
         <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18084,7 +18119,7 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>160</v>
@@ -18093,12 +18128,12 @@
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18109,7 +18144,7 @@
         <v>77</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>76</v>
@@ -18121,18 +18156,20 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
       </c>
@@ -18156,13 +18193,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18180,16 +18217,16 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18198,10 +18235,10 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
@@ -18212,11 +18249,9 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
         <v>76</v>
       </c>
@@ -18225,7 +18260,7 @@
         <v>77</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>76</v>
@@ -18237,15 +18272,17 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -18294,7 +18331,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -18303,19 +18340,19 @@
         <v>78</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
@@ -18326,7 +18363,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18349,16 +18386,20 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>157</v>
+        <v>469</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
       </c>
@@ -18382,13 +18423,13 @@
         <v>76</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18406,7 +18447,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -18415,19 +18456,19 @@
         <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL143" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>76</v>
@@ -18438,11 +18479,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18461,16 +18502,16 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18520,7 +18561,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>166</v>
+        <v>476</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -18529,19 +18570,19 @@
         <v>78</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -18552,43 +18593,41 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C145" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>76</v>
       </c>
@@ -18636,7 +18675,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -18648,16 +18687,16 @@
         <v>76</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>76</v>
@@ -18668,11 +18707,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18694,17 +18733,13 @@
         <v>156</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>76</v>
       </c>
@@ -18713,7 +18748,7 @@
         <v>76</v>
       </c>
       <c r="R146" t="s" s="2">
-        <v>521</v>
+        <v>76</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>76</v>
@@ -18752,7 +18787,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>418</v>
+        <v>159</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -18764,16 +18799,16 @@
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
@@ -18784,18 +18819,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>76</v>
@@ -18807,20 +18842,18 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>425</v>
+        <v>135</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>76</v>
       </c>
@@ -18829,7 +18862,7 @@
         <v>76</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>76</v>
@@ -18844,13 +18877,13 @@
         <v>76</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -18868,28 +18901,28 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>424</v>
+        <v>166</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>76</v>
@@ -18900,11 +18933,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18917,23 +18950,25 @@
         <v>76</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M148" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N148" t="s" s="2">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -18982,7 +19017,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -18994,31 +19029,31 @@
         <v>76</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19037,18 +19072,20 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
       </c>
@@ -19057,7 +19094,7 @@
         <v>76</v>
       </c>
       <c r="R149" t="s" s="2">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>76</v>
@@ -19096,7 +19133,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -19114,10 +19151,10 @@
         <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19128,7 +19165,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19136,7 +19173,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>88</v>
@@ -19151,18 +19188,20 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>76</v>
       </c>
@@ -19171,7 +19210,7 @@
         <v>76</v>
       </c>
       <c r="R150" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>76</v>
@@ -19186,13 +19225,13 @@
         <v>76</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>76</v>
@@ -19210,7 +19249,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -19219,7 +19258,7 @@
         <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>100</v>
@@ -19228,10 +19267,10 @@
         <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>444</v>
+        <v>237</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19242,7 +19281,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19253,7 +19292,7 @@
         <v>77</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>76</v>
@@ -19265,19 +19304,17 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19302,13 +19339,13 @@
         <v>76</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19326,13 +19363,13 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>76</v>
@@ -19344,21 +19381,21 @@
         <v>76</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19381,20 +19418,18 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>76</v>
       </c>
@@ -19418,13 +19453,13 @@
         <v>76</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>76</v>
@@ -19442,7 +19477,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -19460,10 +19495,10 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
@@ -19474,7 +19509,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19485,7 +19520,7 @@
         <v>77</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>76</v>
@@ -19497,16 +19532,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>523</v>
+        <v>118</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19556,16 +19591,16 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>100</v>
@@ -19574,10 +19609,10 @@
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -19588,7 +19623,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19611,19 +19646,19 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -19648,13 +19683,13 @@
         <v>76</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19672,7 +19707,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19681,7 +19716,7 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>100</v>
@@ -19690,7 +19725,7 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>160</v>
@@ -19699,12 +19734,12 @@
         <v>76</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19715,7 +19750,7 @@
         <v>77</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>76</v>
@@ -19727,18 +19762,20 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N155" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
       </c>
@@ -19762,13 +19799,13 @@
         <v>76</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19786,16 +19823,16 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>100</v>
@@ -19804,10 +19841,10 @@
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>76</v>
@@ -19818,20 +19855,18 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>76</v>
@@ -19843,15 +19878,17 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>309</v>
+        <v>529</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19888,19 +19925,17 @@
         <v>76</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB156" s="2"/>
       <c r="AC156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -19909,19 +19944,19 @@
         <v>78</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -19932,15 +19967,17 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
         <v>88</v>
@@ -19955,15 +19992,17 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>157</v>
+        <v>462</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>76</v>
@@ -20012,28 +20051,28 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>159</v>
+        <v>461</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>160</v>
+        <v>466</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -20044,18 +20083,20 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B158" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C158" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>76</v>
@@ -20067,16 +20108,16 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>134</v>
+        <v>533</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20126,7 +20167,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>166</v>
+        <v>461</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -20135,19 +20176,19 @@
         <v>78</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>160</v>
+        <v>466</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
@@ -20158,42 +20199,42 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>137</v>
+        <v>471</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>76</v>
@@ -20218,13 +20259,13 @@
         <v>76</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>76</v>
@@ -20242,28 +20283,28 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>131</v>
+        <v>475</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20274,18 +20315,18 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>76</v>
@@ -20297,20 +20338,18 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>76</v>
       </c>
@@ -20319,7 +20358,7 @@
         <v>76</v>
       </c>
       <c r="R160" t="s" s="2">
-        <v>525</v>
+        <v>76</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>76</v>
@@ -20358,16 +20397,16 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -20376,10 +20415,10 @@
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>298</v>
+        <v>480</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20390,9 +20429,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B161" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="C161" t="s" s="2">
         <v>76</v>
       </c>
@@ -20413,20 +20454,16 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>76</v>
       </c>
@@ -20435,7 +20472,7 @@
         <v>76</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>76</v>
@@ -20450,13 +20487,13 @@
         <v>76</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>76</v>
@@ -20474,28 +20511,28 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20506,7 +20543,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20517,7 +20554,7 @@
         <v>77</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>76</v>
@@ -20529,18 +20566,16 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>432</v>
+        <v>157</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>433</v>
+        <v>158</v>
       </c>
       <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>76</v>
       </c>
@@ -20588,50 +20623,50 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>76</v>
@@ -20643,16 +20678,16 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>435</v>
+        <v>135</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -20702,28 +20737,28 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>434</v>
+        <v>166</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>76</v>
@@ -20734,41 +20769,43 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N164" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
       </c>
@@ -20816,28 +20853,28 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>444</v>
+        <v>131</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
@@ -20848,11 +20885,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20871,19 +20908,19 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20893,7 +20930,7 @@
         <v>76</v>
       </c>
       <c r="R165" t="s" s="2">
-        <v>76</v>
+        <v>535</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>76</v>
@@ -20908,13 +20945,13 @@
         <v>76</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>76</v>
@@ -20932,7 +20969,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -20950,21 +20987,21 @@
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>452</v>
+        <v>297</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20972,7 +21009,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>88</v>
@@ -20990,16 +21027,16 @@
         <v>178</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -21009,7 +21046,7 @@
         <v>76</v>
       </c>
       <c r="R166" t="s" s="2">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>76</v>
@@ -21024,13 +21061,13 @@
         <v>76</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21048,7 +21085,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -21066,10 +21103,10 @@
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>460</v>
+        <v>236</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
@@ -21080,7 +21117,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21103,18 +21140,18 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>527</v>
+        <v>284</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N167" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
       </c>
@@ -21162,7 +21199,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -21171,7 +21208,7 @@
         <v>78</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>100</v>
@@ -21180,21 +21217,21 @@
         <v>76</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>466</v>
+        <v>289</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>467</v>
+        <v>290</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21217,20 +21254,18 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>76</v>
       </c>
@@ -21254,13 +21289,13 @@
         <v>76</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>76</v>
@@ -21278,7 +21313,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -21287,7 +21322,7 @@
         <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>100</v>
@@ -21296,10 +21331,10 @@
         <v>76</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>475</v>
+        <v>76</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>76</v>
@@ -21310,7 +21345,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21321,7 +21356,7 @@
         <v>77</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>76</v>
@@ -21333,16 +21368,16 @@
         <v>76</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21392,13 +21427,13 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>443</v>
@@ -21410,15 +21445,591 @@
         <v>76</v>
       </c>
       <c r="AK169" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN171" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN172" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK174" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL169" t="s" s="2">
+      <c r="AL174" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN169" t="s" s="2">
+      <c r="AM174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN174" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6395" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1553,10 +1553,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result)
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
@@ -1585,6 +1585,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result)
+</t>
+  </si>
+  <si>
+    <t>hivTestDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
@@ -2032,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN174"/>
+  <dimension ref="A1:AN175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12969,15 +12976,17 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -12992,20 +13001,18 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>178</v>
+        <v>504</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13029,13 +13036,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13053,13 +13060,13 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>465</v>
@@ -13071,10 +13078,10 @@
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13085,7 +13092,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13096,7 +13103,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -13108,18 +13115,20 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13143,13 +13152,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13167,16 +13176,16 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13185,10 +13194,10 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13199,11 +13208,9 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13212,7 +13219,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
@@ -13224,15 +13231,17 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13281,7 +13290,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13290,10 +13299,10 @@
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
@@ -13302,7 +13311,7 @@
         <v>413</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13313,9 +13322,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B99" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
       </c>
@@ -13336,13 +13347,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13393,28 +13404,28 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13425,18 +13436,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13448,17 +13459,15 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -13507,19 +13516,19 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13539,11 +13548,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13556,26 +13565,24 @@
         <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13641,7 +13648,7 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>76</v>
@@ -13655,42 +13662,42 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -13700,7 +13707,7 @@
         <v>76</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>76</v>
@@ -13739,28 +13746,28 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13771,15 +13778,15 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>88</v>
@@ -13794,19 +13801,19 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -13816,7 +13823,7 @@
         <v>76</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>76</v>
@@ -13831,13 +13838,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -13855,7 +13862,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -13873,10 +13880,10 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13887,7 +13894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13895,10 +13902,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>76</v>
@@ -13910,17 +13917,19 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N104" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -13930,7 +13939,7 @@
         <v>76</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>76</v>
@@ -13945,13 +13954,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13969,13 +13978,13 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13987,21 +13996,21 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14012,7 +14021,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14024,18 +14033,18 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14083,13 +14092,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -14101,21 +14110,21 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14138,16 +14147,16 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14197,7 +14206,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14206,7 +14215,7 @@
         <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14215,10 +14224,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14229,7 +14238,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14252,20 +14261,18 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14289,13 +14296,13 @@
         <v>76</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14313,7 +14320,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14322,7 +14329,7 @@
         <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>100</v>
@@ -14331,21 +14338,21 @@
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14368,19 +14375,19 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14405,13 +14412,13 @@
         <v>76</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>76</v>
@@ -14429,7 +14436,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14447,7 +14454,7 @@
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>160</v>
@@ -14456,12 +14463,12 @@
         <v>76</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14469,10 +14476,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14484,18 +14491,20 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14519,38 +14528,40 @@
         <v>76</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB109" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>100</v>
@@ -14559,10 +14570,10 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14575,18 +14586,16 @@
       <c r="A110" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B110" t="s" s="2">
-        <v>508</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
@@ -14645,16 +14654,14 @@
         <v>76</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>461</v>
@@ -14815,7 +14822,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>88</v>
@@ -14921,9 +14928,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14944,20 +14953,18 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>178</v>
+        <v>515</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14981,13 +14988,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -15005,13 +15012,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>465</v>
@@ -15023,10 +15030,10 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15037,7 +15044,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15048,7 +15055,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15060,18 +15067,20 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15095,13 +15104,13 @@
         <v>76</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>76</v>
@@ -15119,16 +15128,16 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15137,10 +15146,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15151,11 +15160,9 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15164,7 +15171,7 @@
         <v>77</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>76</v>
@@ -15176,15 +15183,17 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15233,7 +15242,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15242,10 +15251,10 @@
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -15254,7 +15263,7 @@
         <v>413</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15265,9 +15274,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15288,13 +15299,13 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15345,28 +15356,28 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15377,18 +15388,18 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15400,17 +15411,15 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15459,19 +15468,19 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>76</v>
@@ -15491,11 +15500,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15508,26 +15517,24 @@
         <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N118" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15575,7 +15582,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15593,7 +15600,7 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15607,42 +15614,42 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15652,7 +15659,7 @@
         <v>76</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>76</v>
@@ -15691,28 +15698,28 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15723,15 +15730,15 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>88</v>
@@ -15746,19 +15753,19 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15768,7 +15775,7 @@
         <v>76</v>
       </c>
       <c r="R120" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>76</v>
@@ -15783,13 +15790,13 @@
         <v>76</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>76</v>
@@ -15807,7 +15814,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15825,10 +15832,10 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15839,7 +15846,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15847,10 +15854,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -15862,17 +15869,19 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N121" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -15882,7 +15891,7 @@
         <v>76</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>76</v>
@@ -15897,13 +15906,13 @@
         <v>76</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>76</v>
@@ -15921,13 +15930,13 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15939,21 +15948,21 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15964,7 +15973,7 @@
         <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>76</v>
@@ -15976,18 +15985,18 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16035,13 +16044,13 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>76</v>
@@ -16053,21 +16062,21 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16090,16 +16099,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16149,7 +16158,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16158,7 +16167,7 @@
         <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16167,10 +16176,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16181,7 +16190,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16204,20 +16213,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16241,13 +16248,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16265,7 +16272,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16274,7 +16281,7 @@
         <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16283,21 +16290,21 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16320,19 +16327,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16357,13 +16364,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16381,7 +16388,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16399,7 +16406,7 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>160</v>
@@ -16408,12 +16415,12 @@
         <v>76</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16421,10 +16428,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16436,18 +16443,20 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16471,38 +16480,40 @@
         <v>76</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB126" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>100</v>
@@ -16511,10 +16522,10 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16527,18 +16538,16 @@
       <c r="A127" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B127" t="s" s="2">
-        <v>518</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16597,16 +16606,14 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB127" s="2"/>
       <c r="AC127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE127" t="s" s="2">
         <v>461</v>
@@ -16757,15 +16764,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B129" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="C129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>88</v>
@@ -16780,20 +16789,18 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>178</v>
+        <v>523</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16817,13 +16824,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -16841,13 +16848,13 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>465</v>
@@ -16859,10 +16866,10 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16873,7 +16880,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16884,7 +16891,7 @@
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
@@ -16896,18 +16903,20 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
       </c>
@@ -16931,13 +16940,13 @@
         <v>76</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -16955,16 +16964,16 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>100</v>
@@ -16973,10 +16982,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16987,11 +16996,9 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>76</v>
       </c>
@@ -17000,7 +17007,7 @@
         <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
@@ -17012,15 +17019,17 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17069,7 +17078,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17078,10 +17087,10 @@
         <v>78</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
@@ -17090,7 +17099,7 @@
         <v>413</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17101,9 +17110,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="C132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17124,13 +17135,13 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17181,28 +17192,28 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17213,18 +17224,18 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17236,17 +17247,15 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17295,19 +17304,19 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>76</v>
@@ -17327,11 +17336,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17344,26 +17353,24 @@
         <v>76</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N134" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17429,7 +17436,7 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>76</v>
@@ -17443,42 +17450,42 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17488,7 +17495,7 @@
         <v>76</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>76</v>
@@ -17527,28 +17534,28 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17559,15 +17566,15 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>88</v>
@@ -17582,19 +17589,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17604,7 +17611,7 @@
         <v>76</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>76</v>
@@ -17619,13 +17626,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17643,7 +17650,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17661,10 +17668,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17675,7 +17682,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17683,10 +17690,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17698,17 +17705,19 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N137" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17718,7 +17727,7 @@
         <v>76</v>
       </c>
       <c r="R137" t="s" s="2">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>76</v>
@@ -17733,13 +17742,13 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
@@ -17757,13 +17766,13 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -17775,21 +17784,21 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17800,7 +17809,7 @@
         <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17812,18 +17821,18 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17871,13 +17880,13 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -17889,21 +17898,21 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17926,16 +17935,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17985,7 +17994,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -17994,7 +18003,7 @@
         <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -18003,10 +18012,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18017,7 +18026,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18040,20 +18049,18 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18077,13 +18084,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18101,7 +18108,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18110,7 +18117,7 @@
         <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18119,21 +18126,21 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18156,19 +18163,19 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -18193,13 +18200,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18217,7 +18224,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -18235,7 +18242,7 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>160</v>
@@ -18244,12 +18251,12 @@
         <v>76</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18260,7 +18267,7 @@
         <v>77</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>76</v>
@@ -18272,18 +18279,20 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>525</v>
+        <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
       </c>
@@ -18307,13 +18316,13 @@
         <v>76</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -18331,16 +18340,16 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>100</v>
@@ -18349,10 +18358,10 @@
         <v>76</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
@@ -18363,7 +18372,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18374,7 +18383,7 @@
         <v>77</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>76</v>
@@ -18386,20 +18395,18 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>76</v>
       </c>
@@ -18423,13 +18430,13 @@
         <v>76</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18447,13 +18454,13 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>465</v>
@@ -18465,10 +18472,10 @@
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>76</v>
@@ -18479,7 +18486,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18490,7 +18497,7 @@
         <v>77</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>76</v>
@@ -18502,18 +18509,20 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
       </c>
@@ -18537,13 +18546,13 @@
         <v>76</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18561,16 +18570,16 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>100</v>
@@ -18579,10 +18588,10 @@
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -18593,11 +18602,9 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
         <v>76</v>
       </c>
@@ -18606,7 +18613,7 @@
         <v>77</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>76</v>
@@ -18618,15 +18625,17 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18675,7 +18684,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -18684,10 +18693,10 @@
         <v>78</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>76</v>
@@ -18696,7 +18705,7 @@
         <v>413</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>76</v>
@@ -18707,9 +18716,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B146" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="C146" t="s" s="2">
         <v>76</v>
       </c>
@@ -18730,13 +18741,13 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18787,28 +18798,28 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
@@ -18819,18 +18830,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>76</v>
@@ -18842,17 +18853,15 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18901,19 +18910,19 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>76</v>
@@ -18933,11 +18942,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18950,26 +18959,24 @@
         <v>76</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N148" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>76</v>
       </c>
@@ -19017,7 +19024,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -19035,7 +19042,7 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>76</v>
@@ -19049,42 +19056,42 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -19094,7 +19101,7 @@
         <v>76</v>
       </c>
       <c r="R149" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>76</v>
@@ -19133,28 +19140,28 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19165,15 +19172,15 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>88</v>
@@ -19188,19 +19195,19 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>76</v>
@@ -19210,7 +19217,7 @@
         <v>76</v>
       </c>
       <c r="R150" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>76</v>
@@ -19225,13 +19232,13 @@
         <v>76</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>76</v>
@@ -19249,7 +19256,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -19267,10 +19274,10 @@
         <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19281,7 +19288,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19289,10 +19296,10 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>76</v>
@@ -19304,17 +19311,19 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N151" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19324,7 +19333,7 @@
         <v>76</v>
       </c>
       <c r="R151" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>76</v>
@@ -19339,13 +19348,13 @@
         <v>76</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19363,13 +19372,13 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>76</v>
@@ -19381,21 +19390,21 @@
         <v>76</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19406,7 +19415,7 @@
         <v>77</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>76</v>
@@ -19418,18 +19427,18 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>76</v>
       </c>
@@ -19477,13 +19486,13 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>76</v>
@@ -19495,21 +19504,21 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19532,16 +19541,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19591,7 +19600,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -19600,7 +19609,7 @@
         <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>100</v>
@@ -19609,10 +19618,10 @@
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -19623,7 +19632,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19646,20 +19655,18 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>76</v>
       </c>
@@ -19683,13 +19690,13 @@
         <v>76</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19707,7 +19714,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19716,7 +19723,7 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>100</v>
@@ -19725,21 +19732,21 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19762,19 +19769,19 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
@@ -19799,13 +19806,13 @@
         <v>76</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19823,7 +19830,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -19841,7 +19848,7 @@
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>160</v>
@@ -19850,12 +19857,12 @@
         <v>76</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19863,10 +19870,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>76</v>
@@ -19878,18 +19885,20 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>529</v>
+        <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
       </c>
@@ -19913,38 +19922,40 @@
         <v>76</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB156" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>100</v>
@@ -19953,10 +19964,10 @@
         <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -19969,18 +19980,16 @@
       <c r="A157" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B157" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>76</v>
@@ -20039,16 +20048,14 @@
         <v>76</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB157" s="2"/>
       <c r="AC157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>461</v>
@@ -20199,15 +20206,17 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="C159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>88</v>
@@ -20222,20 +20231,18 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>178</v>
+        <v>535</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>76</v>
       </c>
@@ -20259,13 +20266,13 @@
         <v>76</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>76</v>
@@ -20283,13 +20290,13 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>465</v>
@@ -20301,10 +20308,10 @@
         <v>76</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20315,7 +20322,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20326,7 +20333,7 @@
         <v>77</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>76</v>
@@ -20338,18 +20345,20 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
       </c>
@@ -20373,13 +20382,13 @@
         <v>76</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>76</v>
@@ -20397,16 +20406,16 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -20415,10 +20424,10 @@
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20429,11 +20438,9 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
         <v>76</v>
       </c>
@@ -20442,7 +20449,7 @@
         <v>77</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>76</v>
@@ -20454,15 +20461,17 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20511,7 +20520,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -20520,10 +20529,10 @@
         <v>78</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>76</v>
@@ -20532,7 +20541,7 @@
         <v>413</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20543,9 +20552,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B162" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="C162" t="s" s="2">
         <v>76</v>
       </c>
@@ -20566,13 +20577,13 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -20623,28 +20634,28 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -20655,18 +20666,18 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>76</v>
@@ -20678,17 +20689,15 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20737,19 +20746,19 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>76</v>
@@ -20769,11 +20778,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20786,26 +20795,24 @@
         <v>76</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N164" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>76</v>
       </c>
@@ -20853,7 +20860,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -20871,7 +20878,7 @@
         <v>76</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>76</v>
@@ -20885,42 +20892,42 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20930,7 +20937,7 @@
         <v>76</v>
       </c>
       <c r="R165" t="s" s="2">
-        <v>535</v>
+        <v>76</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>76</v>
@@ -20969,28 +20976,28 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
@@ -21001,15 +21008,15 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>88</v>
@@ -21024,19 +21031,19 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -21046,7 +21053,7 @@
         <v>76</v>
       </c>
       <c r="R166" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>76</v>
@@ -21061,13 +21068,13 @@
         <v>76</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21085,7 +21092,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -21103,10 +21110,10 @@
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
@@ -21117,7 +21124,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21125,10 +21132,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>76</v>
@@ -21140,17 +21147,19 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N167" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -21160,7 +21169,7 @@
         <v>76</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>76</v>
@@ -21175,13 +21184,13 @@
         <v>76</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>76</v>
@@ -21199,13 +21208,13 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>76</v>
@@ -21217,21 +21226,21 @@
         <v>76</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21242,7 +21251,7 @@
         <v>77</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>76</v>
@@ -21254,18 +21263,18 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
       </c>
@@ -21313,13 +21322,13 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>76</v>
@@ -21331,21 +21340,21 @@
         <v>76</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21368,16 +21377,16 @@
         <v>76</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21427,7 +21436,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -21436,7 +21445,7 @@
         <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>100</v>
@@ -21445,10 +21454,10 @@
         <v>76</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>76</v>
@@ -21459,7 +21468,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21482,20 +21491,18 @@
         <v>76</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>76</v>
       </c>
@@ -21519,13 +21526,13 @@
         <v>76</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>76</v>
@@ -21543,7 +21550,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -21552,7 +21559,7 @@
         <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>100</v>
@@ -21561,21 +21568,21 @@
         <v>76</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21598,19 +21605,19 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21635,13 +21642,13 @@
         <v>76</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21659,7 +21666,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -21677,7 +21684,7 @@
         <v>76</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>160</v>
@@ -21686,12 +21693,12 @@
         <v>76</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21702,7 +21709,7 @@
         <v>77</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>76</v>
@@ -21714,18 +21721,20 @@
         <v>76</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
       </c>
@@ -21749,13 +21758,13 @@
         <v>76</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>76</v>
@@ -21773,16 +21782,16 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>100</v>
@@ -21791,10 +21800,10 @@
         <v>76</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>76</v>
@@ -21805,7 +21814,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21816,7 +21825,7 @@
         <v>77</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>76</v>
@@ -21828,20 +21837,18 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>178</v>
+        <v>539</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
         <v>76</v>
       </c>
@@ -21865,13 +21872,13 @@
         <v>76</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>76</v>
@@ -21889,13 +21896,13 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>465</v>
@@ -21907,10 +21914,10 @@
         <v>76</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>76</v>
@@ -21921,7 +21928,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21932,7 +21939,7 @@
         <v>77</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>76</v>
@@ -21944,18 +21951,20 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N174" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
       </c>
@@ -21979,13 +21988,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -22003,16 +22012,16 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>100</v>
@@ -22021,15 +22030,129 @@
         <v>76</v>
       </c>
       <c r="AK174" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK175" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL174" t="s" s="2">
+      <c r="AL175" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN174" t="s" s="2">
+      <c r="AM175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN175" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-composition.xlsx
+++ b/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
